--- a/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-20T23:08:07+00:00</t>
+    <t>2024-09-21T08:07:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
